--- a/rapat.xlsx
+++ b/rapat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19395" windowHeight="8355" activeTab="4"/>
+    <workbookView windowWidth="19485" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="7" r:id="rId1"/>
@@ -325,10 +325,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -352,9 +352,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,17 +374,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -390,23 +390,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -415,14 +400,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,7 +414,60 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,39 +488,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,7 +517,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,25 +655,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,13 +679,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,121 +691,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,15 +750,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -774,17 +765,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,149 +808,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1349,10 +1349,10 @@
   <sheetPr/>
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2927,7 +2927,7 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
@@ -3029,8 +3029,8 @@
   <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -3106,7 +3106,7 @@
   <sheetPr/>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3221,8 +3221,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/rapat.xlsx
+++ b/rapat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19485" windowHeight="7890"/>
+    <workbookView windowWidth="18945" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="7" r:id="rId1"/>
@@ -325,10 +325,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -352,8 +352,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,6 +375,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -382,9 +458,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,75 +482,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,23 +495,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,19 +517,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,163 +685,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,11 +771,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,11 +803,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,17 +819,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,133 +835,133 @@
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -965,11 +971,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1026,6 +1032,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1350,9 +1359,9 @@
   <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2774,22 +2783,22 @@
       <c r="L37" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="N37" s="8">
+      <c r="N37" s="22">
         <v>8</v>
       </c>
-      <c r="O37" s="8">
+      <c r="O37" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="P37" s="8">
+      <c r="P37" s="22">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Q37" s="8">
+      <c r="Q37" s="22">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="R37" s="8">
+      <c r="R37" s="22">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
@@ -2821,22 +2830,22 @@
       <c r="L38" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="N38" s="8">
+      <c r="N38" s="22">
         <v>2</v>
       </c>
-      <c r="O38" s="8">
+      <c r="O38" s="22">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P38" s="21">
+      <c r="P38" s="22">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="Q38" s="21">
+      <c r="Q38" s="22">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="R38" s="21">
+      <c r="R38" s="22">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
